--- a/prep_and_checklists/Open AI  /PREPLIST_Open AI  _11-14-2025_0.xlsx
+++ b/prep_and_checklists/Open AI  /PREPLIST_Open AI  _11-14-2025_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Open AI  /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E875BC2D-8E43-3947-B1CC-DE272C88F4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF38A74-A9D9-5B47-8928-0A45E838C7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
@@ -858,6 +858,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -1301,8 +1304,8 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="A4:B4"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="69" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1544,5 +1547,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>